--- a/P0022/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0022/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0022\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0022/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F7742-9B0C-4D92-8115-FDAFF4FAF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{A87F7742-9B0C-4D92-8115-FDAFF4FAF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D3CE8BF-357B-42F9-BA69-D48579F56256}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24810" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -101,20 +101,35 @@
     <t>IT-445-CAL-MG</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/CALIDAD DE AGUA/IT-445-CAL-MG.pdf</t>
+  </si>
+  <si>
     <t>INP SAS (INGENIERIA DE PROYECTOS SAS)</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento corresponde a la caracterización fisicoquímica y microbiológica del agua, en las ciénagas Grande, Olaya Herrera o Pavas, Los Negritos, Rabón y en el río Magdalena. Realizado dentro del marco del proyecto  para "Elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipos de San Marcos (Sucre) y Magangué (Bolivar)".
+</t>
+  </si>
+  <si>
     <t>Informe</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Anexo1: Informe de Ensayos de Laboratorio._x000D_
-Anexo 2: Certificados de Acreditación y Calidad del Laboratorio.</t>
-  </si>
-  <si>
-    <t>Calidad del agua, ICA, Mercurio, Plomo, Nitratos, Fósforo, Oxígeno disuelto, Magangué, Contaminación, pH, COnductividad, Nutrientes, Amonio, DQO, SST, Gestión de Recursos Hídricos, Coliformes.</t>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe presenta un análisis exhaustivo de la calidad del agua y  condiciones hidrológicas de Magangué. Su objetivo principal es proporcionar un marco técnico que permita la elaboración de diseños de estructuras de protección para mitigar los riesgos asociados a la contaminación y la variabilidad hídrica en estas áreas urbanas. Se estructura en varias secciones clave que abordan diferentes aspectos del estudio. En primer lugar, se describe el área de estudio en  Magangué. Luego,  se destacan las características geográficas y socioeconómicas, así como su vulnerabilidad a fenómenos hidrológicos adversos. En la fase de laboratorio, se llevaron a cabo análisis detallados de las muestras recolectadas, utilizando métodos estandarizados, como los propuestos por la APHA y la EPA, para garantizar la precisión y confiabilidad de los resultados. Se aplicó el Índice de Calidad del Agua (ICA) para sintetizar la información obtenida y facilitar la comunicación de los hallazgos a diferentes actores, incluidos administradores y especialistas en medio ambiente. Entre los resultados más relevantes se encontró que las Ciénaga  Grande, Olaya y el río Magdalena, presentaron una calidad del agua “Regular”, con una menor calificación en la ciénaga Olaya Herrera. La  calidad mas baja la presentó la ciénaga Los Negritos, con una calificación del agua “Mala” y la mejor calidad del agua la presentó la ciénaga “Rabón” con una calificación “Aceptable”. </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>El informe presenta información relevante en materia de gestión del agua y protección ambiental. Proporciona datos concretos que pueden ser utilizados por las autoridades locales para implementar políticas de conservación, así como para sensibilizar a la comunidad sobre la importancia de la calidad del agua. Sin embargo, no se evidenciaron conclusiones específicas ni recomendaciones. Adicionalmente, el documento relaciona unos anexos, dentro del documento (Anexo 1: Informe de ensayos de laboraorio, Anexo 2: Certificacion de Acreditación y Calidad  De Laboratorio)</t>
+  </si>
+  <si>
+    <t>Calidad del agua, ICA, Mercurio, Plomo, Nitratos, Fósforo, Oxígeno disuelto, Magangué, contaminación, pH, conductividad, nutrientes, Amonio, DQO, SST, gestión de recursos hídricos, coliformes.</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -123,7 +138,20 @@
     <t>IT-445-CAL-SM</t>
   </si>
   <si>
-    <t>Calidad del agua, ICA, Mercurio, Plomo, Nitratos, Fósforo, Oxígeno disuelto, San Marcos, Contaminación, pH, COnductividad, Nutrientes, Amonio, DQO, SST, Gestión de Recursos Hídricos, Coliformes.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/CALIDAD DE AGUA/IT-445-CAL-SM.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento corresponde a la caracterización fisicoquímica y microbiológica del agua, en las ciénagas San Marcos, El Toro y en el río San Jorge
+</t>
+  </si>
+  <si>
+    <t>El informe presenta el estudio realizado de calidad de aguas en sectores determinados de San Marcos, en donde se realizaron pruebas de campo y de laboratorio como el pH, conductividad, cantidad de nitratos, fosfatos, mercurio, plomo, entre otros. Posterior a los resultados se presenta la comparación según la regulación estatal y se presenta el valor del ICA (índice de calidad del agua) en los puntos evaluados, en donde  las ciénagas de san Marcos y El Toro presentan una calidad del agua “Regular”, mostrándose la estación E2 como la de peor calidad del agua, en lo que incidió las altas concentraciones de coliformes fecales y de fósforo total reportadas. La mejor calidad del agua la presentó el río San Jorge, con un ICA de 0.74, y una calificación “Aceptable”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe presenta información relevante en materia de gestión del agua y protección ambiental. Proporciona datos concretos que pueden ser utilizados por las autoridades locales para implementar políticas de conservación, así como para sensibilizar a la comunidad sobre la importancia de la calidad del agua. Sin embargo, no se evidenciaron conclusiones específicas ni recomendaciones. Adicionalmente, el documento relaciona unos anexos, pero no es claro donde encontrarlos dentro de la carpeta del proyecto. </t>
+  </si>
+  <si>
+    <t>calidad del agua, ICA, mercurio, plomo, nitratos, fósforo, oxígeno disuelto, San Marcos, contaminación, pH, conductividad, nutrientes, amonio, DQO, SST, gestión de recursos hídricos, coliformes.</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -132,171 +160,144 @@
     <t>IT-445-BAT-MGv1</t>
   </si>
   <si>
-    <t>Informe de Levantamiento Batimétrico, del contrato de Consultoría 197-2018, que se centra en la elaboración de los diseños de detalle de las estructuras de protección para los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>San Marcos, Magangué, Batimetría, análisis sedimentológico, Levantamiento Batimétrico, corriente, Caudal.</t>
-  </si>
-  <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>IT-PAT-00</t>
-  </si>
-  <si>
-    <t>Patología estructural, Magangué, Erosión, Corrosión, Muro de contensión, Infraestructura.</t>
-  </si>
-  <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>IT-445-TOP-MG</t>
-  </si>
-  <si>
-    <t>Anexo 1: Registro Fotográfico._x000D_
-Anexo 2: Resultados del levantamiento topográfico._x000D_
-Anexo 3: Cartera Topográfica Relevante._x000D_
-Anexo 4: Planos Topográficos.</t>
-  </si>
-  <si>
-    <t>Magangué, Levantamiento topográfico, Curva de nivel, Perfil topográfico, Inundación, Desastres, Estructura de protección.</t>
-  </si>
-  <si>
-    <t>PR0006</t>
-  </si>
-  <si>
-    <t>IT-445-TOP-SM</t>
-  </si>
-  <si>
-    <t>El informe tiene como objetivo realizar el levantamiento Topográfico en el municipio de San Marcos  (zonas de Nivelación de bocacalles del pueblo, levantamientos en las intersecciones entre las orillas de la Ciénaga La Cruz con el municipio y levantamientos sobre los trazados de los diques proyectados en el diseño preliminar).  Los resultados del levantamiento incluyen planos de elevación del terreno y perfiles transversales y longitudinales que representan el relieve del área estudiada. Se espera que esta información sirva como base para el diseño de estructuras de protección que mitiguen los riesgos de inundaciones y otros desastres naturales.</t>
-  </si>
-  <si>
-    <t>San Marcos, Levantamiento topográfico, Curva de nivel, Perfil topográfico, Inundación, Desastres, Estructura de protección.</t>
-  </si>
-  <si>
-    <t>PR0007</t>
-  </si>
-  <si>
-    <t>IT-445-GEO-MG</t>
-  </si>
-  <si>
-    <t>Magangué, Inundación, Exploración geotécnica, Dique, Zona de socavación, Granulometría.</t>
-  </si>
-  <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>IT-445-GEO-SM</t>
-  </si>
-  <si>
-    <t>San Marcos, Inundación, Exploración geotécnica, Dique, Zona de socavación, Granulometría, Prevención de desastres, Nivel freático.</t>
-  </si>
-  <si>
-    <t>El informe incluye un análisis de la calidad del agua y aspectos hidrológicos, describiendo las variables analizadas en campo y laboratorio, junto con sus resultados respectivos en un área de estudio determinada del municipio de Magangué.</t>
-  </si>
-  <si>
-    <t>El informe incluye un análisis de la calidad del agua y aspectos hidrológicos, describiendo las variables analizadas en campo y laboratorio junto con sus resultados respectivos en un área de estudio determinada del municipio de San Marcos.</t>
-  </si>
-  <si>
-    <t>Informe de Patología Estructural de Magangué, en el marco del contrato de consultoría 197-2018, que se centra en la elaboración de los diseños de detalle de las estructuras de protección para los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar).</t>
-  </si>
-  <si>
-    <t>Informe de levantamiento topográfico del municipio de Magangué.</t>
-  </si>
-  <si>
-    <t>Informe de levantamiento topográfico del municipio de San Marcos.</t>
-  </si>
-  <si>
-    <t>Informe de exploración Geotécnica de Magangué.</t>
-  </si>
-  <si>
-    <t>Informe de exploración Geotécnica de San Marcos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe busca proporcionar un análisis detallado de las condiciones hidrológicas y ambientales, identificando problemas de contaminación y proponiendo medidas para la protección y conservación del agua de Magangué.  Se realizaron pruebas de campo y de laboratorio como el pH, conductividad, cantidad de nitratos, fosfatos, mercurio, plomo, entre otros. Posterior a los resultados se presenta la comparación según la regulación estatal y se presenta el valor del ICA (índice de calidad del agua) en los puntos evaluados, en donde las ciénagas Grande, Olaya y el río Magdalena, presentan una calidad del agua “Regular”, con una menor calificación de la ciénaga Olaya Herrera. La peor calidad la presentó la ciénaga Los Negritos, con una calidad del agua “Mala” y la mejor calidad del agua la presentó la ciénaga “Rabón” con una calificación “Aceptable”. </t>
-  </si>
-  <si>
-    <t>El informe presenta el estudio realizado de calidad de aguas en sectores determinados de San Marcos, en donde se realizaron pruebas de campo y de laboratorio como el pH, conductividad, cantidad de nitratos, fosfatos, mercurio, plomo, entre otros. Posterior a los resultados se presenta la comparación según la regulación estatal y se presenta el valor del ICA (índice de calidad del agua) en los puntos evaluados, en donde  las ciénagas de san Marcos y El Toro presentan una calidad del agua “Regular”, mostrándose la estación E2 como la de peor calidad del agua, en lo que incidió las altas concentraciones de coliformes fecales y de fósforo total reportadas. La mejor calidad del agua la presentó el río San Jorge, con un ICA de 0.74, y una calificación “Aceptable”.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/BATIMETRIA/IT-445-BAT-MGv1.pdf</t>
+  </si>
+  <si>
+    <t>Informe de Levantamiento Batimétrico, del contrato de Consultoría 197-2018, que se centra en la elaboración de los diseños de detalle de las estructuras de protección para los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). Realizado dentro del marco del proyecto  para "Elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipos de San Marcos (Sucre) y Magangué (Bolivar)".</t>
   </si>
   <si>
     <t>El informe tiene como objetivo realizar el levantamiento batimétrico, de monitoreo y control, mediante la ejecución de líneas batimétricas que cubran la totalidad del área de estudio (Magangué y San Marcos), con el propósito de recopilar y analizar información del lecho del río y ayudar a definir el estado actual de la orilla. El levantamiento batimétrico se realizó mediante mediciones  utilizando líneas de sondeo perpendiculares a las orillas, con separaciones de 25 metros en áreas de interés y de 50 metros en otras zonas, adicionalmente se utilizaron estaciones de control para monitorear las variaciones de nivel de agua, lo que permitió ajustar las mediciones batimétricas. Finalmente,  la información recolectada fue procesada para determinar las coordenadas y generar planos de profundidades, que son fundamentales para el cálculo de volúmenes y secciones transversales. Los resultados del levantamiento batimétrico fueron comparados con un modelo digital de terreno (DTM), mostrando que las mediciones se mantuvieron dentro de los mismos rangos de magnitud, lo que sugiere consistencia en los datos y la influencia de procesos naturales en los cuerpos de agua. 
 En general, el documento proporciona una visión integral sobre el proceso de levantamiento batimétrico, sus metodologías, resultados y la relevancia de estos datos para el diseño de estructuras de protección en los municipios mencionados.</t>
   </si>
   <si>
-    <t>Este documento describe los trabajos de campo ejecutados, los ensayos realizados y demás análisis ejecutados con el fin de revisar las condiciones del muro existente en el sector oriental de Magangué, determinando la resistencia y estado del concreto.  Incluye identificar y clasificar los daños presentes en los muros de contención, así como proponer soluciones y procedimientos de reparación para garantizar la seguridad y estabilidad de estas estructuras. Este estudio se realizó específicamente en el municipio de Magangué, específicamente sobre la margen occidental del río Magdalena. Los resultados indican que se identificaron daños moderados en los muros de contención, principalmente por erosión y abrasión, exacerbados por descargas de aguas residuales.  El documento describe las características de la estructura y la metodología para evaluarlas.  Se observó que la estructura, construida en los años 70 u 80, presenta áreas que han sido demolidas y reconstruidas, lo que complica su evaluación.  Finalmente, se proponen procedimientos específicos para abordar los daños identificados, destacando la importancia de un monitoreo continuo y la implementación de medidas preventivas.</t>
-  </si>
-  <si>
-    <t>El informe tiene como objetivo realizar el levantamiento topográfico en el municipio de Magangué, tanto casco urbano como parte de las vías existentes (Dique Norte, Dique Sur, Dique Oriental, Vía Magangué – Yati, Vía Magangué – El retiro, Vadeo De Posas Internas, Nivelación Bocacalles Del Pueblo, Ambas orillas del Río Magdalena en el tramo comprendido entre El Retiro y Yatí).  Los resultados incluyen la generación de planos de elevación del terreno y la identificación de puntos críticos que requieren atención en términos de infraestructura de protección. Se presentan también curvas de nivel y perfiles del terreno que son fundamentales para el diseño de las estructuras. El informe concluye que los levantamientos topográficos son esenciales para la planificación y diseño de estructuras de protección en el casco urbano de Magangué. Se destaca la importancia de utilizar tecnología adecuada y realizar un reconocimiento previo del área para asegurar la precisión de los datos recolectados.</t>
+    <t>El informe es relevante para la planificación y diseño de estructuras de protección en los municipios mencionados. Sin embargo, sería beneficioso incluir recomendaciones específicas basadas en los resultados del levantamiento batimétrico, lo que podría guiar a los tomadores de decisiones en la implementación de medidas adecuadas. El documento relaciona anexos del levantamiento batimétrico, sin embargo, no se encuentra el anexo como tal dentro de la carpeta.</t>
+  </si>
+  <si>
+    <t>San Marcos, Magangué, batimetría, análisis sedimentológico, levantamiento batimétrico, corriente, caudal.</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>IT-PAT-00</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/PATOLOGIA/IT-PAT-00.pdf</t>
+  </si>
+  <si>
+    <t>Informe de Patología Estructural de Magangué, en el marco del contrato de consultoría 197-2018, que se centra en la elaboración de los diseños de detalle de las estructuras de protección para los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar).</t>
+  </si>
+  <si>
+    <t>Este documento describe los trabajos de campo ejecutados, los ensayos realizados con el fin de revisar las condiciones del muro existente en el sector oriental de Magangué, determinando la resistencia y estado del concreto.  Incluye identificar y clasificar los daños presentes en los muros de contención, así como proponer soluciones y procedimientos de reparación para garantizar la seguridad y estabilidad de estas estructuras. Este estudio se realizó específicamente en el municipio de Magangué, específicamente sobre la margen occidental del río Magdalena. Los resultados indican que se identificaron daños moderados en los muros de contención, principalmente por erosión y abrasión, exacerbados por descargas de aguas residuales. El documento describe las características de la estructura y la metodología para evaluarlas. Se observó que la estructura, construida en los años 70 u 80, presenta áreas que han sido demolidas y reconstruidas, lo que complica su evaluación.  Finalmente, se proponen procedimientos específicos para abordar los daños identificados, destacando la importancia de un monitoreo continuo y la implementación de medidas preventivas.</t>
+  </si>
+  <si>
+    <t>El documento proporciona un análisis detallado de los daños observados en los muros de contención, lo que es crucial para la toma de decisiones sobre las intervenciones necesarias. La clasificación y ubicación de los daños permiten priorizar acciones de reparación. Adicionalmente, proporciona una base sólida para la implementación de medidas de reparación y mantenimiento de la estructura.  El documento relaciona anexos. Sin embargo, no se encuentra el anexo como tal dentro de la carpeta.</t>
+  </si>
+  <si>
+    <t>Patología estructural, Magangué, Erosión, Corrosión, Muro de contensión, Infraestructura.</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>IT-445-TOP-MG</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/TOPOGRAFIA/IT-445-TOP-MG.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde al Capítulo 2 Trabajo de campo,  Informe de levantamiento topográfico del municipio de Magangué. En el marco del contrato 197 de 2018 cuyo objeto es "Elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolivar)"</t>
+  </si>
+  <si>
+    <t>El informe tiene como objetivo realizar el levantamiento topográfico en el municipio de Magangué, tanto casco urbano como parte de las vías existentes (Dique Norte, Dique Sur, Dique Oriental, Vía Magangué – Yati, Vía Magangué – El retiro, Vadeo De Posas Internas, Nivelación Bocacalles Del Pueblo, Ambas orillas del Río Magdalena en el tramo comprendido entre El Retiro y Yatí.  Los resultados incluyen la generación de planos de elevación del terreno y la identificación de puntos críticos que requieren atención en términos de infraestructura de protección. Se presentan también curvas de nivel y perfiles del terreno que son fundamentales para el diseño de las estructuras. El informe concluye que los levantamientos topográficos son esenciales para la planificación y diseño de estructuras de protección en el casco urbano de Magangué. Se destaca la importancia de utilizar tecnología adecuada y realizar un reconocimiento previo del área para asegurar la precisión de los datos recolectados.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/PLANOS/MAGANGUE</t>
+  </si>
+  <si>
+    <t>El documento proporciona información esencial para la planificación de estructuras de protección en el casco urbano de Magangué. Los anexos se encuentran dentro del documento, con excepción del anexo 4, para el cual se presenta la ruta</t>
+  </si>
+  <si>
+    <t>Magangué, levantamiento topográfico, curva de nivel, perfil topográfico, inundación, desastres, estructura de protección.</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>IT-445-TOP-SM</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/TOPOGRAFIA/IT-445-TOP-SM.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde al Capítulo 2 Trabajo de campo,  Informe de levantamiento topográfico del municipio de San Marcos. En el marco del contrato 197 de 2018 cuyo objeto es "Elaborar los diseños de detalle de las estructuras de protección de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolivar)"</t>
+  </si>
+  <si>
+    <t>El informe tiene como objetivo explicar el levantamiento topográfico realizado en el municipio de San Marcos (zonas de nivelación de bocacalles del pueblo, levantamientos en las intersecciones entre las orillas de la ciénaga La Cruz con el municipio y levantamientos sobre los trazados de los diques proyectados en el diseño preliminar).  Los resultados del levantamiento incluyen planos de elevación del terreno y perfiles transversales y longitudinales que representan el relieve del área estudiada. Se espera que esta información sirva como base para el diseño de estructuras de protección que mitiguen los riesgos de inundaciones y otros desastres naturales.</t>
+  </si>
+  <si>
+    <t>El documento es una guía técnica que proporciona información detallada sobre el levantamiento topográfico del municipio de San Marcos, con el fin de diseñar estructuras que protejan a la población de riesgos ambientales, por lo que se considera relevante para las autoridades locales y los planificadores urbanos, ya que proporciona información crítica que puede influir en la implementación de medidas de protección y en la gestión de riesgos en las áreas afectadas. Los anexos se encuentran dentro del documento, con excepción del anexo 3. el cual no es claro dónde se encuentra.</t>
+  </si>
+  <si>
+    <t>San Marcos, levantamiento topográfico, curva de nivel, perfil topográfico, inundación, desastres, estructura de protección.</t>
+  </si>
+  <si>
+    <t>PR0007</t>
+  </si>
+  <si>
+    <t>IT-445-GEO-MG</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/IT-445-GEO-MG.pdf</t>
+  </si>
+  <si>
+    <t>El documento corresponde al informe de exploración Geotécnica de Magangué, realizado en el marco del contrato de consultoría 197-2018. El informe describe los trabajos de exploración directa que se llevaron a cabo como parte de la investigación geotécnica para las estructuras de control de inundación, ZODMES, estaciones de bombeo y fuentes de materiales en el municipio de Magangué, Bolívar.</t>
   </si>
   <si>
     <t>En el informe se describen los trabajos de exploración directa que se llevaron a cabo como parte de la investigación geotécnica para las estructuras de control de inundación, zodmes, estaciones de bombeo y fuentes de materiales. En el documento se detalla la información geotécnica de los 18 sondeos realizados, con profundidades que varían entre 9.0 y 45.0 metros, y los ensayos de laboratorio que se llevaron a cabo para caracterizar los suelos. Los ensayos realizados permitieron caracterizar las propiedades mecánicas de los suelos en la región, lo que es fundamental para el diseño de estructuras de protección contra inundaciones. Se identificaron áreas con mayor riesgo de inundación y socavación, lo que ayudará en la planificación de intervenciones estructurales y no estructurales. Finalmente, se concluye que la exploración geotécnica y los ensayos ejecutados fueron suficientes para realizar el análisis y definición geotécnica de la zona de estudio de Magangué.</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/ANEXO_GEOFISICA_MGV1.pdf</t>
+  </si>
+  <si>
+    <t>El informe presenta información clara y valiosa, cuenta con una metodología detallada y proporciona información crítica sobre la construcción de estructuras de protección. El producto relaciona anexos que no se evidencian claramente dentro de la carpeta del proyecto.</t>
+  </si>
+  <si>
+    <t>Magangué, inundación, exploración geotécnica, dique, zona de socavación, granulometría.</t>
+  </si>
+  <si>
+    <t>PR0008</t>
+  </si>
+  <si>
+    <t>IT-445-GEO-SM</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/IT-445-GEO-SM.pdf</t>
+  </si>
+  <si>
+    <t>El documento titulado "Informe Exploración Geotécnica – San Marcos" corresponde al Contrato de Consultoría 197-2018, cuyo objetivo principal es la elaboración de diseños de detalle para las estructuras de protección de los cascos urbanos de los municipios de San Marcos (Sucre) y Magangué (Bolívar). Este informe, entregado el 7 de mayo de 2019, se enmarca dentro de las acciones del Fondo de Adaptación, creado para abordar las consecuencias del fenómeno de "La Niña" de 2010-2011, y busca prevenir riesgos y proteger a la población de amenazas económicas, sociales y ambientales.</t>
+  </si>
+  <si>
     <t>En el informe se describen los trabajos de exploración directa que se llevaron a cabo como parte de la investigación geotécnica para las estructuras de control de inundación, ZODMES, estaciones de bombeo y fuentes de materiales en el municipio de San Marcos.  Se programaron y ejecutaron un total de 22 sondeos en el municipio de San Marcos, con profundidades que variaron entre 6.0 y 10.0 metros.  Se realizaron varios análisis de laboratorio que incluyen granulometría, ensayos de corte directo, consolidación unidimensional y ensayos CBR (California Bearing Ratio). Los datos obtenidos se analizaron para caracterizar las propiedades de los suelos y determinar su idoneidad para las estructuras de protección y control de inundaciones. Los resultados muestran que se realizó un análisis exhaustivo de las condiciones del suelo, lo que permitirá diseñar estructuras de protección más efectivas. Finalmente, se concluye que la exploración geotécnica y los ensayos ejecutados fueron suficientes para realizar el análisis y definición geotécnica de la zona de estudio.</t>
   </si>
   <si>
-    <t xml:space="preserve">El informe presenta información relevante en materia de gestión del agua y protección ambiental. Proporciona datos concretos que pueden ser utilizados por las autoridades locales para implementar políticas de conservación, así como para sensibilizar a la comunidad sobre la importancia de la calidad del agua. Sin embargo, no se evidenciaron conclusiones específicas ni recomendaciones. Adicionalmente, el documento relaciona unos anexos, pero no es claro donde encontrarlos dentro de la carpeta del proyecto. </t>
-  </si>
-  <si>
-    <t>El informe es relevante para la planificación y diseño de estructuras de protección en los municipios mencionados. Sin embargo, sería beneficioso incluir recomendaciones específicas basadas en los resultados del levantamiento batimétrico, lo que podría guiar a los tomadores de decisiones en la implementación de medidas adecuadas. El documento relaciona anexos del levantamiento batimétrico, sin embargo, no se encuentra el anexo como tal dentro de la carpeta.</t>
-  </si>
-  <si>
-    <t>El documento proporciona un análisis detallado de los daños observados en los muros de contención, lo que es crucial para la toma de decisiones sobre las intervenciones necesarias. La clasificación y ubicación de los daños permiten priorizar acciones de reparación. Adicionalmente, proporciona una base sólida para la implementación de medidas de reparación y mantenimiento de la estructura.  El documento relaciona anexos. Sin embargo, no se encuentra el anexo como tal dentro de la carpeta.</t>
-  </si>
-  <si>
-    <t>El documento proporciona información esencial para la planificación de estructuras de protección en el casco urbano de Magangué. Los anexos se encuentran dentro del documento, con excepción del anexo 4. el cual no es claro dónde se encuentra.</t>
-  </si>
-  <si>
-    <t>El documento es una guía técnica que proporciona información detallada sobre el levantamiento topográfico del municipio de San Marcos, con el fin de diseñar estructuras que protejan a la población de riesgos ambientales, por lo que se considera relevante para las autoridades locales y los planificadores urbanos, ya que proporciona información crítica que puede influir en la implementación de medidas de protección y en la gestión de riesgos en las áreas afectadas.  Los anexos se encuentran dentro del documento, con excepción del anexo 3. el cual no es claro dónde se encuentra.</t>
-  </si>
-  <si>
-    <t>El informe presenta información clara y valiosa, cuenta con una metodología detallada y proporciona información crítica sobre la construcción de estructuras de protección. El producto relaciona anexos que no se evidencian claramente dentro de la carpeta del proyecto.</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/CALIDAD DE AGUA/IT-445-CAL-MG.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/CALIDAD DE AGUA/IT-445-CAL-SM.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/BATIMETRIA/IT-445-BAT-MGv1.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/PATOLOGIA/IT-PAT-00.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/TOPOGRAFIA/IT-445-TOP-MG.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/TOPOGRAFIA/IT-445-TOP-SM.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/IT-445-GEO-MG.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/IT-445-GEO-SM.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/ANEXO_GEOFISICA_MGV1.pdf</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0022/02_PRODUCTOS/GEOTECNIA/ANEXO_GEOFISICA_SMV1.pdf</t>
+  </si>
+  <si>
+    <t>El informe presenta información clara y valiosa, cuenta con una metodología detallada y proporciona información crítica sobre la construcción de estructuras de protección. El producto relaciona anexos inmersos en el documento (Anexo1: Registro de perforación estructuras de control de inundación, Anexo 2: registro de perforaciones ZODMES)</t>
+  </si>
+  <si>
+    <t>San Marcos, inundación, exploración geotécnica, dique, zona de socavación, granulometría, prevención de desastres, nivel freático.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +307,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -474,6 +482,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,6 +885,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -890,13 +909,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -931,7 +943,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1222,10 +1234,10 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
@@ -1241,10 +1253,12 @@
     <col min="14" max="14" width="18.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="41.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1311,441 +1325,441 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>2019</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>2019</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
         <v>2019</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2">
         <v>2019</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="11">
         <v>2019</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2">
         <v>2019</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2">
         <v>2019</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4">
         <v>2019</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="P9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="R9" s="10" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1911,27 +1925,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0022/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0022/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0022/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{A87F7742-9B0C-4D92-8115-FDAFF4FAF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D3CE8BF-357B-42F9-BA69-D48579F56256}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{A87F7742-9B0C-4D92-8115-FDAFF4FAF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCE12405-73D5-47CC-88E1-7FE3B864EF66}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -485,7 +485,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,30 +884,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -943,7 +942,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1233,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
@@ -1258,7 +1257,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1422,11 +1421,11 @@
       <c r="Q3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="17.25" customHeight="1">
+    <row r="8" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1925,9 +1924,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>